--- a/Data/Bilançolar/BSOKE.xlsx
+++ b/Data/Bilançolar/BSOKE.xlsx
@@ -13155,7 +13155,7 @@
         <v>963164000</v>
       </c>
       <c r="C73" t="n">
-        <v>308150839</v>
+        <v>308151000</v>
       </c>
       <c r="D73" t="n">
         <v>737083007</v>
@@ -13330,7 +13330,7 @@
         <v>-814760000</v>
       </c>
       <c r="C74" t="n">
-        <v>-248345810</v>
+        <v>-248346000</v>
       </c>
       <c r="D74" t="n">
         <v>-616821568</v>
@@ -13680,7 +13680,7 @@
         <v>148404000</v>
       </c>
       <c r="C76" t="n">
-        <v>59805029</v>
+        <v>59805000</v>
       </c>
       <c r="D76" t="n">
         <v>120261439</v>
@@ -14730,7 +14730,7 @@
         <v>148404000</v>
       </c>
       <c r="C82" t="n">
-        <v>59805029</v>
+        <v>59805000</v>
       </c>
       <c r="D82" t="n">
         <v>120261439</v>
@@ -14905,7 +14905,7 @@
         <v>-19155000</v>
       </c>
       <c r="C83" t="n">
-        <v>-16861439</v>
+        <v>-16861000</v>
       </c>
       <c r="D83" t="n">
         <v>-96752850</v>
@@ -15080,7 +15080,7 @@
         <v>-21331000</v>
       </c>
       <c r="C84" t="n">
-        <v>-9748111</v>
+        <v>-9748000</v>
       </c>
       <c r="D84" t="n">
         <v>-24089200</v>
@@ -15430,7 +15430,7 @@
         <v>36656000</v>
       </c>
       <c r="C86" t="n">
-        <v>17295512</v>
+        <v>17295000</v>
       </c>
       <c r="D86" t="n">
         <v>52384520</v>
@@ -15605,7 +15605,7 @@
         <v>-60842000</v>
       </c>
       <c r="C87" t="n">
-        <v>-18061887</v>
+        <v>-18062000</v>
       </c>
       <c r="D87" t="n">
         <v>-62868940</v>
@@ -15955,7 +15955,7 @@
         <v>83732000</v>
       </c>
       <c r="C89" t="n">
-        <v>32429104</v>
+        <v>32429000</v>
       </c>
       <c r="D89" t="n">
         <v>-11065031</v>
@@ -16130,7 +16130,7 @@
         <v>107918000</v>
       </c>
       <c r="C90" t="n">
-        <v>33195479</v>
+        <v>33196000</v>
       </c>
       <c r="D90" t="n">
         <v>-580611</v>
@@ -16305,7 +16305,7 @@
         <v>349000</v>
       </c>
       <c r="C91" t="n">
-        <v>110843</v>
+        <v>111000</v>
       </c>
       <c r="D91" t="n">
         <v>532413</v>
@@ -16830,7 +16830,7 @@
         <v>14549000</v>
       </c>
       <c r="C94" t="n">
-        <v>9492212</v>
+        <v>9492000</v>
       </c>
       <c r="D94" t="n">
         <v>-18231616</v>
@@ -17005,7 +17005,7 @@
         <v>2781000</v>
       </c>
       <c r="C95" t="n">
-        <v>42032159</v>
+        <v>42032000</v>
       </c>
       <c r="D95" t="n">
         <v>-28764234</v>
@@ -17180,7 +17180,7 @@
         <v>3840000</v>
       </c>
       <c r="C96" t="n">
-        <v>3512125</v>
+        <v>3513000</v>
       </c>
       <c r="D96" t="n">
         <v>3427863</v>
@@ -17355,7 +17355,7 @@
         <v>-489778000</v>
       </c>
       <c r="C97" t="n">
-        <v>-178192468</v>
+        <v>-178194000</v>
       </c>
       <c r="D97" t="n">
         <v>-661902173</v>
@@ -17530,7 +17530,7 @@
         <v>-95500000</v>
       </c>
       <c r="C98" t="n">
-        <v>110843</v>
+        <v>111000</v>
       </c>
       <c r="D98" t="n">
         <v>532413</v>
@@ -17705,7 +17705,7 @@
         <v>-483157000</v>
       </c>
       <c r="C99" t="n">
-        <v>-132648184</v>
+        <v>-132649000</v>
       </c>
       <c r="D99" t="n">
         <v>-687238544</v>
@@ -17880,7 +17880,7 @@
         <v>17860000</v>
       </c>
       <c r="C100" t="n">
-        <v>2220231</v>
+        <v>2221000</v>
       </c>
       <c r="D100" t="n">
         <v>-2336479</v>
@@ -18230,7 +18230,7 @@
         <v>17860000</v>
       </c>
       <c r="C102" t="n">
-        <v>2220231</v>
+        <v>2221000</v>
       </c>
       <c r="D102" t="n">
         <v>-2336479</v>
@@ -18580,7 +18580,7 @@
         <v>-465297000</v>
       </c>
       <c r="C104" t="n">
-        <v>-130427953</v>
+        <v>-130428000</v>
       </c>
       <c r="D104" t="n">
         <v>-689575023</v>
@@ -19105,7 +19105,7 @@
         <v>-465297000</v>
       </c>
       <c r="C107" t="n">
-        <v>-130427953</v>
+        <v>-130428000</v>
       </c>
       <c r="D107" t="n">
         <v>-689575023</v>
@@ -19630,7 +19630,7 @@
         <v>-465297000</v>
       </c>
       <c r="C110" t="n">
-        <v>-130427953</v>
+        <v>-130428000</v>
       </c>
       <c r="D110" t="n">
         <v>-689575023</v>
@@ -20855,7 +20855,7 @@
         <v>-489778000</v>
       </c>
       <c r="C117" t="n">
-        <v>-178192468</v>
+        <v>-178194000</v>
       </c>
       <c r="D117" t="n">
         <v>-661902173</v>
